--- a/Doc/Journal-de-Travail_NardouThomas.xlsx
+++ b/Doc/Journal-de-Travail_NardouThomas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pk88yte\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pk88yte\Documents\GitHub\Passion-Book-Mobile\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253AE979-9062-4A92-908F-5097FDE2B4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDA2B01-964D-4737-8179-D5A6F974AA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Thomas Nardou</t>
+  </si>
+  <si>
+    <t>En apprendre plus MAUI</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1036,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.7361111111111112E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1042,7 +1045,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0833333333333332E-2</c:v>
+                  <c:v>3.472222222222222E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.0833333333333332E-2</c:v>
@@ -1958,7 +1961,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2099,7 +2102,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="43">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
         <v>24</v>
@@ -2120,11 +2123,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
-      <c r="B9" s="40"/>
+      <c r="B9" s="40">
+        <v>45369</v>
+      </c>
       <c r="C9" s="36"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="48"/>
+      <c r="D9" s="44">
+        <v>25</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>31</v>
+      </c>
       <c r="G9" s="20"/>
       <c r="M9" t="s">
         <v>4</v>
@@ -8198,7 +8209,7 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C7" s="30" t="str">
         <f>'Journal de travail'!M11</f>
@@ -8206,7 +8217,7 @@
       </c>
       <c r="D7" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.7361111111111112E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8248,7 +8259,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C10,'Journal de travail'!$D$7:$D$532)</f>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C10" s="49" t="str">
         <f>'Journal de travail'!M14</f>
@@ -8256,7 +8267,7 @@
       </c>
       <c r="D10" s="45">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>3.472222222222222E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -8279,7 +8290,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666671E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8301,18 +8312,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8578,6 +8577,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8587,20 +8598,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8618,4 +8615,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Doc/Journal-de-Travail_NardouThomas.xlsx
+++ b/Doc/Journal-de-Travail_NardouThomas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pk88yte\Documents\GitHub\Passion-Book-Mobile\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDA2B01-964D-4737-8179-D5A6F974AA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738D8984-3CC3-4B34-A261-D2907FC10B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>En apprendre plus MAUI</t>
+  </si>
+  <si>
+    <t>Continuer à en apprendre plus MAUI mais en codant cette fois en faisant des petits tests</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1033,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1961,7 +1964,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2014,7 +2017,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 4 heurs 0 minutes</v>
+        <v>0 jours 8 heurs 0 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2029,7 +2032,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>180</v>
+        <v>420</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
@@ -2037,7 +2040,7 @@
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2148,10 +2151,19 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="35"/>
+      <c r="B10" s="39">
+        <v>45376</v>
+      </c>
+      <c r="C10" s="35">
+        <v>4</v>
+      </c>
       <c r="D10" s="43"/>
-      <c r="F10" s="48"/>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>32</v>
+      </c>
       <c r="G10" s="17"/>
       <c r="M10" t="s">
         <v>5</v>
@@ -8169,7 +8181,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
@@ -8181,7 +8193,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8290,7 +8302,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>4.1666666666666671E-2</v>
+        <v>0.20833333333333331</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8312,6 +8324,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8577,18 +8601,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8598,6 +8610,20 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8615,18 +8641,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Doc/Journal-de-Travail_NardouThomas.xlsx
+++ b/Doc/Journal-de-Travail_NardouThomas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pk88yte\Documents\GitHub\Passion-Book-Mobile\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738D8984-3CC3-4B34-A261-D2907FC10B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CFAAE3-8FB0-42F8-BFD2-F64B3BB8F3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -139,6 +139,21 @@
   </si>
   <si>
     <t>Continuer à en apprendre plus MAUI mais en codant cette fois en faisant des petits tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai passé pas mal de temps à regler un soucis d0aillgnement de texte et avec l'aide du prof j'ai réussi à regler le problème </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Après avoir mis en place j'ai essayé de mettre en place des valeur personnalisé pour chaque composant et j'ai réussi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre des images personnalisé pour mes composant </t>
+  </si>
+  <si>
+    <t>J'ai passé pas mal de temps à essayer de lire un fichier epub mais Lucas L m'a conseiller d'utiliser le package nuGet VersOne Epub Reader pour pouvoir marcher et j'ai réussi après ça</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai continuer de paufiner quelque petit détails pour la page d'accueil </t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1048,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.24652777777777779</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1964,7 +1979,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2017,7 +2032,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 8 heurs 0 minutes</v>
+        <v>0 jours 9 heurs 55 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2036,11 +2051,11 @@
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>480</v>
+        <v>595</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2175,13 +2190,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
-      <c r="B11" s="40"/>
+      <c r="B11" s="40">
+        <v>45397</v>
+      </c>
       <c r="C11" s="36"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="48"/>
+      <c r="D11" s="44">
+        <v>20</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>33</v>
+      </c>
       <c r="G11" s="20"/>
       <c r="M11" t="s">
         <v>6</v>
@@ -2193,11 +2216,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
+    <row r="12" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="39">
+        <v>45397</v>
+      </c>
       <c r="C12" s="35"/>
-      <c r="D12" s="43"/>
-      <c r="F12" s="48"/>
+      <c r="D12" s="43">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>34</v>
+      </c>
       <c r="G12" s="17"/>
       <c r="M12" t="s">
         <v>7</v>
@@ -2211,11 +2243,19 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
-      <c r="B13" s="40"/>
+      <c r="B13" s="40">
+        <v>45397</v>
+      </c>
       <c r="C13" s="36"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="48"/>
+      <c r="D13" s="44">
+        <v>20</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>35</v>
+      </c>
       <c r="G13" s="20"/>
       <c r="M13" t="s">
         <v>8</v>
@@ -2227,11 +2267,20 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="39"/>
+    <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="39">
+        <v>45397</v>
+      </c>
       <c r="C14" s="35"/>
-      <c r="D14" s="43"/>
-      <c r="F14" s="48"/>
+      <c r="D14" s="43">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>36</v>
+      </c>
       <c r="G14" s="17"/>
       <c r="M14" t="s">
         <v>24</v>
@@ -2247,9 +2296,15 @@
       <c r="A15" s="18"/>
       <c r="B15" s="40"/>
       <c r="C15" s="36"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="48"/>
+      <c r="D15" s="44">
+        <v>20</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>37</v>
+      </c>
       <c r="G15" s="20"/>
       <c r="M15" t="s">
         <v>25</v>
@@ -8185,7 +8240,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8193,7 +8248,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.16666666666666666</v>
+        <v>0.24652777777777779</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8302,7 +8357,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.20833333333333331</v>
+        <v>0.28819444444444442</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8324,18 +8379,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8601,6 +8644,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8610,20 +8665,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8641,4 +8682,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Doc/Journal-de-Travail_NardouThomas.xlsx
+++ b/Doc/Journal-de-Travail_NardouThomas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pk88yte\Documents\GitHub\Passion-Book-Mobile\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CFAAE3-8FB0-42F8-BFD2-F64B3BB8F3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5092D4-6BAF-4B76-81F4-9780E50CCB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -154,6 +154,30 @@
   </si>
   <si>
     <t xml:space="preserve">J'ai continuer de paufiner quelque petit détails pour la page d'accueil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai fait des recherches pour un border radius et le click event sur un autre élément qu'un bouton </t>
+  </si>
+  <si>
+    <t>J'ai continuer a faire de rechercher et tester ce que j'ai appris pour passer des paramètre lors du changement de page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je continue d'avancer sur le problème en essayer d'ajouter un nouveau livre sur l'application </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai commencé à modifier mon API pour qu'elle puisse recevoir des fichier </t>
+  </si>
+  <si>
+    <t>j'AI CONTUNIER A DOCKERISé L'API MAIS SANS SUCCèS DUCOUP JE SUIS RETOURNER AVANCé SUR L'APPLICATION MOBILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">au final je continue mes recheres sur la connexions avec l'API </t>
+  </si>
+  <si>
+    <t>J'ai essayé de connecter mon application avec l'API (avec M. Melly)</t>
+  </si>
+  <si>
+    <t>Avec M. melly nous avons continuer d'essayer de connecter l'application avec l'API mais sans succès</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1072,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24652777777777779</c:v>
+                  <c:v>0.37152777777777779</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1978,8 +2002,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2032,7 +2056,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 9 heurs 55 minutes</v>
+        <v>0 jours 12 heurs 55 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2051,11 +2075,11 @@
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>175</v>
+        <v>355</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>595</v>
+        <v>775</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2294,7 +2318,9 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
-      <c r="B15" s="40"/>
+      <c r="B15" s="40">
+        <v>45397</v>
+      </c>
       <c r="C15" s="36"/>
       <c r="D15" s="44">
         <v>20</v>
@@ -2317,32 +2343,58 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
+      <c r="B16" s="39">
+        <v>45404</v>
+      </c>
       <c r="C16" s="35"/>
-      <c r="D16" s="43"/>
-      <c r="F16" s="48"/>
+      <c r="D16" s="43">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>38</v>
+      </c>
       <c r="G16" s="17"/>
       <c r="O16">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
-      <c r="B17" s="40"/>
+      <c r="B17" s="40">
+        <v>45404</v>
+      </c>
       <c r="C17" s="36"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="48"/>
+      <c r="D17" s="44">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>39</v>
+      </c>
       <c r="G17" s="20"/>
       <c r="O17">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
+      <c r="B18" s="39">
+        <v>45404</v>
+      </c>
       <c r="C18" s="35"/>
-      <c r="D18" s="43"/>
-      <c r="F18" s="48"/>
+      <c r="D18" s="43">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>40</v>
+      </c>
       <c r="G18" s="17"/>
       <c r="O18">
         <v>50</v>
@@ -2350,46 +2402,88 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="40"/>
+      <c r="B19" s="40">
+        <v>45404</v>
+      </c>
       <c r="C19" s="36"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="48"/>
+      <c r="D19" s="44">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>41</v>
+      </c>
       <c r="G19" s="20"/>
       <c r="O19">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="39"/>
+    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="39">
+        <v>45404</v>
+      </c>
       <c r="C20" s="35"/>
-      <c r="D20" s="43"/>
-      <c r="F20" s="48"/>
+      <c r="D20" s="43">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>42</v>
+      </c>
       <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
-      <c r="B21" s="40"/>
+      <c r="B21" s="40">
+        <v>45404</v>
+      </c>
       <c r="C21" s="36"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="48"/>
+      <c r="D21" s="44">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>43</v>
+      </c>
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="39"/>
+      <c r="B22" s="39">
+        <v>45404</v>
+      </c>
       <c r="C22" s="35"/>
-      <c r="D22" s="43"/>
-      <c r="F22" s="48"/>
+      <c r="D22" s="43">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>44</v>
+      </c>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
-      <c r="B23" s="40"/>
+      <c r="B23" s="40">
+        <v>45404</v>
+      </c>
       <c r="C23" s="36"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="48"/>
+      <c r="D23" s="44">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>45</v>
+      </c>
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -8240,7 +8334,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>115</v>
+        <v>295</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8248,7 +8342,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.24652777777777779</v>
+        <v>0.37152777777777779</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8357,7 +8451,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.28819444444444442</v>
+        <v>0.41319444444444442</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8379,6 +8473,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8644,18 +8750,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8665,6 +8759,20 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8682,18 +8790,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Doc/Journal-de-Travail_NardouThomas.xlsx
+++ b/Doc/Journal-de-Travail_NardouThomas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pk88yte\Documents\GitHub\Passion-Book-Mobile\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5092D4-6BAF-4B76-81F4-9780E50CCB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BE33FF-C5CC-4A15-8167-B3099D20EA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -178,6 +178,24 @@
   </si>
   <si>
     <t>Avec M. melly nous avons continuer d'essayer de connecter l'application avec l'API mais sans succès</t>
+  </si>
+  <si>
+    <t>J'ai réussi a connecter mon application avec l'API maintenant il me reste plus qu'a lire mes données</t>
+  </si>
+  <si>
+    <t>J'ai essayé de lire mon json mais sans succès donc je vais essayé d'une autre manière</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai enfin réussi a lire les données de l'API grâce à Tiago qui m'a aidé </t>
+  </si>
+  <si>
+    <t>J'ai modifier mon code pour code pour qu'il accepte le MVVM mais je n'ai pas encore terminé</t>
+  </si>
+  <si>
+    <t>j'ai enfin eu le déclique pour pour pouvoir affichermes livres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai ENFIN réussi à récuperer les informations de l'API et à les afficher sur l'application </t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1090,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37152777777777779</c:v>
+                  <c:v>0.46180555555555558</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2003,7 +2021,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2056,7 +2074,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 12 heurs 55 minutes</v>
+        <v>0 jours 15 heurs 4 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2075,11 +2093,11 @@
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>355</v>
+        <v>485</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>775</v>
+        <v>905</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2486,52 +2504,91 @@
       </c>
       <c r="G23" s="20"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="39"/>
       <c r="C24" s="35"/>
-      <c r="D24" s="43"/>
-      <c r="F24" s="48"/>
+      <c r="D24" s="43">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>46</v>
+      </c>
       <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="40"/>
       <c r="C25" s="36"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="48"/>
+      <c r="D25" s="44">
+        <v>15</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" s="39"/>
       <c r="C26" s="35"/>
-      <c r="D26" s="43"/>
-      <c r="F26" s="48"/>
+      <c r="D26" s="43">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>48</v>
+      </c>
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="40"/>
       <c r="C27" s="36"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="48"/>
+      <c r="D27" s="44">
+        <v>15</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>49</v>
+      </c>
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="39"/>
       <c r="C28" s="35"/>
-      <c r="D28" s="43"/>
-      <c r="F28" s="47"/>
+      <c r="D28" s="43">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>50</v>
+      </c>
       <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="40"/>
       <c r="C29" s="36"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="47"/>
+      <c r="D29" s="44">
+        <v>10</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>51</v>
+      </c>
       <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -8334,7 +8391,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>295</v>
+        <v>425</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8342,7 +8399,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.37152777777777779</v>
+        <v>0.46180555555555558</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8451,7 +8508,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.41319444444444442</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8473,18 +8530,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8750,6 +8795,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8759,20 +8816,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8790,4 +8833,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Doc/Journal-de-Travail_NardouThomas.xlsx
+++ b/Doc/Journal-de-Travail_NardouThomas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pk88yte\Documents\GitHub\Passion-Book-Mobile\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BE33FF-C5CC-4A15-8167-B3099D20EA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EFC405-6EF1-4A6B-AD36-4F8617C1C627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t xml:space="preserve">J'ai ENFIN réussi à récuperer les informations de l'API et à les afficher sur l'application </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avec M melly nous essayer d'enregistrer le fichier epub </t>
+  </si>
+  <si>
+    <t>j'essaie actuellement de recuperer un livre a partir de son id</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1096,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46180555555555558</c:v>
+                  <c:v>0.52083333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2021,7 +2027,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2074,7 +2080,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 15 heurs 4 minutes</v>
+        <v>0 jours 16 heurs 30 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2093,11 +2099,11 @@
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>485</v>
+        <v>570</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>905</v>
+        <v>990</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2602,16 +2608,29 @@
       <c r="A31" s="18"/>
       <c r="B31" s="40"/>
       <c r="C31" s="36"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="47"/>
+      <c r="D31" s="44">
+        <v>45</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>52</v>
+      </c>
       <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32" s="39"/>
       <c r="C32" s="35"/>
-      <c r="D32" s="43"/>
-      <c r="F32" s="48"/>
+      <c r="D32" s="43">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="48" t="s">
+        <v>53</v>
+      </c>
       <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -8391,7 +8410,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>425</v>
+        <v>510</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8399,7 +8418,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.46180555555555558</v>
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8508,7 +8527,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.50347222222222221</v>
+        <v>0.56250000000000011</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8530,6 +8549,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8795,18 +8826,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8816,6 +8835,20 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8833,18 +8866,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Doc/Journal-de-Travail_NardouThomas.xlsx
+++ b/Doc/Journal-de-Travail_NardouThomas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pk88yte\Documents\GitHub\Passion-Book-Mobile\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EFC405-6EF1-4A6B-AD36-4F8617C1C627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FDFFB3-05F4-41F7-9E96-282C255A5324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>j'essaie actuellement de recuperer un livre a partir de son id</t>
+  </si>
+  <si>
+    <t>J'ai regler le dernier soucis que j'avais avec les scroll du texte et le changement de page</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1099,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52083333333333337</c:v>
+                  <c:v>0.57638888888888884</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2027,7 +2030,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2080,7 +2083,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 16 heurs 30 minutes</v>
+        <v>0 jours 17 heurs 50 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2095,15 +2098,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>990</v>
+        <v>1070</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2511,7 +2514,9 @@
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="39"/>
+      <c r="B24" s="39">
+        <v>45425</v>
+      </c>
       <c r="C24" s="35"/>
       <c r="D24" s="43">
         <v>25</v>
@@ -2526,7 +2531,9 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
-      <c r="B25" s="40"/>
+      <c r="B25" s="40">
+        <v>134.05000000000001</v>
+      </c>
       <c r="C25" s="36"/>
       <c r="D25" s="44">
         <v>15</v>
@@ -2540,7 +2547,9 @@
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="39"/>
+      <c r="B26" s="39">
+        <v>134.05000000000001</v>
+      </c>
       <c r="C26" s="35"/>
       <c r="D26" s="43">
         <v>50</v>
@@ -2555,7 +2564,9 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
-      <c r="B27" s="40"/>
+      <c r="B27" s="40">
+        <v>134.05000000000001</v>
+      </c>
       <c r="C27" s="36"/>
       <c r="D27" s="44">
         <v>15</v>
@@ -2569,7 +2580,9 @@
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="39"/>
+      <c r="B28" s="39">
+        <v>134.05000000000001</v>
+      </c>
       <c r="C28" s="35"/>
       <c r="D28" s="43">
         <v>15</v>
@@ -2584,7 +2597,9 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
-      <c r="B29" s="40"/>
+      <c r="B29" s="40">
+        <v>134.05000000000001</v>
+      </c>
       <c r="C29" s="36"/>
       <c r="D29" s="44">
         <v>10</v>
@@ -2598,7 +2613,9 @@
       <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="39"/>
+      <c r="B30" s="39">
+        <v>134.05000000000001</v>
+      </c>
       <c r="C30" s="35"/>
       <c r="D30" s="43"/>
       <c r="F30" s="48"/>
@@ -2606,7 +2623,9 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
-      <c r="B31" s="40"/>
+      <c r="B31" s="40">
+        <v>134.05000000000001</v>
+      </c>
       <c r="C31" s="36"/>
       <c r="D31" s="44">
         <v>45</v>
@@ -2620,7 +2639,9 @@
       <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="39"/>
+      <c r="B32" s="39">
+        <v>134.05000000000001</v>
+      </c>
       <c r="C32" s="35"/>
       <c r="D32" s="43">
         <v>40</v>
@@ -2635,11 +2656,21 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="47"/>
+      <c r="B33" s="40">
+        <v>45439</v>
+      </c>
+      <c r="C33" s="36">
+        <v>1</v>
+      </c>
+      <c r="D33" s="44">
+        <v>20</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>54</v>
+      </c>
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -8406,11 +8437,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8418,7 +8449,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.52083333333333337</v>
+        <v>0.57638888888888884</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8527,7 +8558,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.56250000000000011</v>
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8549,18 +8580,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8826,6 +8845,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8835,20 +8866,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8866,4 +8883,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>